--- a/test.xlsx
+++ b/test.xlsx
@@ -1,37 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsantiago\Documents\K-State\Shiny_DONMaiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\correndo\Documents\GitHub_repos\Shiny_DONMaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE10200D-4A29-4DD8-BD7D-5950ED43968B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65086F7-AB00-48B7-AB27-F31CFEE5CC41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">test!$A$1:$C$21</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Ns</t>
+    <t>y</t>
   </si>
   <si>
-    <t>y</t>
+    <t>Nsf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,8 +512,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -865,822 +870,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
+      <c r="A2" s="1">
+        <v>71.289000000000001</v>
       </c>
       <c r="B2">
-        <v>3472.0466670000001</v>
+        <v>7080.55029585799</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>4.5454545450000001</v>
+      <c r="A3" s="1">
+        <v>75.851495999999997</v>
       </c>
       <c r="B3">
-        <v>3720.5339049999998</v>
+        <v>8875.0876961252197</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>9.0909090910000003</v>
+      <c r="A4" s="1">
+        <v>79.273368000000019</v>
       </c>
       <c r="B4">
-        <v>3958.421214</v>
+        <v>9860.0102564102599</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>13.636363640000001</v>
+      <c r="A5" s="1">
+        <v>106.64834399999999</v>
       </c>
       <c r="B5">
-        <v>4185.7085930000003</v>
+        <v>8826.9306964041898</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>18.18181818</v>
+      <c r="A6" s="1">
+        <v>124.68899999999999</v>
       </c>
       <c r="B6">
-        <v>4402.3960440000001</v>
+        <v>11774.3114556213</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>22.727272729999999</v>
+      <c r="A7" s="1">
+        <v>129.251496</v>
       </c>
       <c r="B7">
-        <v>4608.4835659999999</v>
+        <v>10701.5512899408</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>27.272727270000001</v>
+      <c r="A8" s="1">
+        <v>132.67336800000004</v>
       </c>
       <c r="B8">
-        <v>4803.9711589999997</v>
+        <v>12113.396551141201</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>31.81818182</v>
+      <c r="A9" s="1">
+        <v>160.04834399999999</v>
       </c>
       <c r="B9">
-        <v>4988.8588229999996</v>
+        <v>11492.452544378701</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>36.363636360000001</v>
+      <c r="A10" s="1">
+        <v>178.089</v>
       </c>
       <c r="B10">
-        <v>5163.1465580000004</v>
+        <v>12815.0555857988</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>40.909090910000003</v>
+      <c r="A11" s="1">
+        <v>182.65149600000001</v>
       </c>
       <c r="B11">
-        <v>5326.8343640000003</v>
+        <v>14568.370366863899</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>45.454545449999998</v>
+      <c r="A12" s="1">
+        <v>186.07336800000004</v>
       </c>
       <c r="B12">
-        <v>5479.9222410000002</v>
+        <v>14564.1408284024</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>50</v>
+      <c r="A13" s="1">
+        <v>213.44834399999996</v>
       </c>
       <c r="B13">
-        <v>5622.4101899999996</v>
+        <v>13121.8928218731</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>54.545454550000002</v>
+      <c r="A14" s="1">
+        <v>231.48900000000003</v>
       </c>
       <c r="B14">
-        <v>5754.2982089999996</v>
+        <v>14286.0704790991</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>59.090909089999997</v>
+      <c r="A15" s="1">
+        <v>236.05149600000001</v>
       </c>
       <c r="B15">
-        <v>5875.5862999999999</v>
+        <v>13022.190781065099</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>63.636363639999999</v>
+      <c r="A16" s="1">
+        <v>239.47336800000002</v>
       </c>
       <c r="B16">
-        <v>5986.274461</v>
+        <v>15435.3285207101</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>68.181818179999993</v>
+      <c r="A17" s="1">
+        <v>266.848344</v>
       </c>
       <c r="B17">
-        <v>6086.3626940000004</v>
+        <v>14989.175369345299</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>72.727272729999996</v>
+      <c r="A18" s="1">
+        <v>284.88900000000001</v>
       </c>
       <c r="B18">
-        <v>6175.8509979999999</v>
+        <v>14059.759715976301</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>77.272727270000004</v>
+      <c r="A19" s="1">
+        <v>289.45149600000002</v>
       </c>
       <c r="B19">
-        <v>6254.7393730000003</v>
+        <v>15156.085254437901</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>81.818181820000007</v>
+      <c r="A20" s="1">
+        <v>292.87336800000003</v>
       </c>
       <c r="B20">
-        <v>6323.0278189999999</v>
+        <v>12633.4634441951</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>86.363636360000001</v>
+      <c r="A21" s="1">
+        <v>320.24834399999997</v>
       </c>
       <c r="B21">
-        <v>6380.7163360000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>90.909090910000003</v>
-      </c>
-      <c r="B22">
-        <v>6427.804924</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>95.454545449999998</v>
-      </c>
-      <c r="B23">
-        <v>6464.2935829999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>100</v>
-      </c>
-      <c r="B24">
-        <v>6490.1823139999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>104.54545450000001</v>
-      </c>
-      <c r="B25">
-        <v>6505.4711150000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>109.0909091</v>
-      </c>
-      <c r="B26">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>113.6363636</v>
-      </c>
-      <c r="B27">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>118.1818182</v>
-      </c>
-      <c r="B28">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>122.7272727</v>
-      </c>
-      <c r="B29">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>127.2727273</v>
-      </c>
-      <c r="B30">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>131.81818179999999</v>
-      </c>
-      <c r="B31">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>136.36363639999999</v>
-      </c>
-      <c r="B32">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>140.9090909</v>
-      </c>
-      <c r="B33">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>145.45454549999999</v>
-      </c>
-      <c r="B34">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>150</v>
-      </c>
-      <c r="B35">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>154.54545450000001</v>
-      </c>
-      <c r="B36">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>159.0909091</v>
-      </c>
-      <c r="B37">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>163.63636360000001</v>
-      </c>
-      <c r="B38">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>168.18181820000001</v>
-      </c>
-      <c r="B39">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>172.72727269999999</v>
-      </c>
-      <c r="B40">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>177.27272730000001</v>
-      </c>
-      <c r="B41">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>181.81818179999999</v>
-      </c>
-      <c r="B42">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>186.36363639999999</v>
-      </c>
-      <c r="B43">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>190.9090909</v>
-      </c>
-      <c r="B44">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>195.45454549999999</v>
-      </c>
-      <c r="B45">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>200</v>
-      </c>
-      <c r="B46">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>204.54545450000001</v>
-      </c>
-      <c r="B47">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>209.0909091</v>
-      </c>
-      <c r="B48">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>213.63636360000001</v>
-      </c>
-      <c r="B49">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>218.18181820000001</v>
-      </c>
-      <c r="B50">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>222.72727269999999</v>
-      </c>
-      <c r="B51">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>227.27272730000001</v>
-      </c>
-      <c r="B52">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>231.81818179999999</v>
-      </c>
-      <c r="B53">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>236.36363639999999</v>
-      </c>
-      <c r="B54">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>240.9090909</v>
-      </c>
-      <c r="B55">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>245.45454549999999</v>
-      </c>
-      <c r="B56">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>250</v>
-      </c>
-      <c r="B57">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>254.54545450000001</v>
-      </c>
-      <c r="B58">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>259.09090909999998</v>
-      </c>
-      <c r="B59">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>263.63636359999998</v>
-      </c>
-      <c r="B60">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>268.18181820000001</v>
-      </c>
-      <c r="B61">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>272.72727270000001</v>
-      </c>
-      <c r="B62">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>277.27272729999999</v>
-      </c>
-      <c r="B63">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>281.81818179999999</v>
-      </c>
-      <c r="B64">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>286.36363640000002</v>
-      </c>
-      <c r="B65">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>290.90909090000002</v>
-      </c>
-      <c r="B66">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>295.45454549999999</v>
-      </c>
-      <c r="B67">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>300</v>
-      </c>
-      <c r="B68">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>304.54545450000001</v>
-      </c>
-      <c r="B69">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>309.09090909999998</v>
-      </c>
-      <c r="B70">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>313.63636359999998</v>
-      </c>
-      <c r="B71">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>318.18181820000001</v>
-      </c>
-      <c r="B72">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>322.72727270000001</v>
-      </c>
-      <c r="B73">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>327.27272729999999</v>
-      </c>
-      <c r="B74">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>331.81818179999999</v>
-      </c>
-      <c r="B75">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>336.36363640000002</v>
-      </c>
-      <c r="B76">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>340.90909090000002</v>
-      </c>
-      <c r="B77">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>345.45454549999999</v>
-      </c>
-      <c r="B78">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>350</v>
-      </c>
-      <c r="B79">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>354.54545450000001</v>
-      </c>
-      <c r="B80">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>359.09090909999998</v>
-      </c>
-      <c r="B81">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>363.63636359999998</v>
-      </c>
-      <c r="B82">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>368.18181820000001</v>
-      </c>
-      <c r="B83">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>372.72727270000001</v>
-      </c>
-      <c r="B84">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>377.27272729999999</v>
-      </c>
-      <c r="B85">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>381.81818179999999</v>
-      </c>
-      <c r="B86">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>386.36363640000002</v>
-      </c>
-      <c r="B87">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>390.90909090000002</v>
-      </c>
-      <c r="B88">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>395.45454549999999</v>
-      </c>
-      <c r="B89">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>400</v>
-      </c>
-      <c r="B90">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>404.54545450000001</v>
-      </c>
-      <c r="B91">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>409.09090909999998</v>
-      </c>
-      <c r="B92">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>413.63636359999998</v>
-      </c>
-      <c r="B93">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>418.18181820000001</v>
-      </c>
-      <c r="B94">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>422.72727270000001</v>
-      </c>
-      <c r="B95">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>427.27272729999999</v>
-      </c>
-      <c r="B96">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>431.81818179999999</v>
-      </c>
-      <c r="B97">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>436.36363640000002</v>
-      </c>
-      <c r="B98">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>440.90909090000002</v>
-      </c>
-      <c r="B99">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>445.45454549999999</v>
-      </c>
-      <c r="B100">
-        <v>6510.1776019999998</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>450</v>
-      </c>
-      <c r="B101">
-        <v>6510.1776019999998</v>
+        <v>13573.2597189349</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C21" xr:uid="{17CE77AB-947C-4DBC-A6B6-49872999B5C9}">
+    <sortState ref="A2:C21">
+      <sortCondition ref="A1:A21"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>